--- a/routedata/MayurbhanjUp.xlsx
+++ b/routedata/MayurbhanjUp.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lot-1_36 Buses" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Mayurbhanj" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2694,11 +2689,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3188,9 +3183,6 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="165" formatCode=";;;"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3206,6 +3198,9 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode=";;;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3263,7 +3258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3298,7 +3293,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3475,7 +3470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3489,20 +3484,20 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.41796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5234375" customWidth="1"/>
-    <col min="4" max="4" width="12.41796875" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7890625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5234375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.41796875" customWidth="1"/>
-    <col min="8" max="8" width="19.5234375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7890625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1">
+    <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3531,7 +3526,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3561,7 +3556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3591,7 +3586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3621,7 +3616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3651,7 +3646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3681,7 +3676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3711,7 +3706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3741,7 +3736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3771,7 +3766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3801,7 +3796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3831,7 +3826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3861,7 +3856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3891,7 +3886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3921,7 +3916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3951,7 +3946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3981,7 +3976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4011,7 +4006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4041,7 +4036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4071,7 +4066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4101,7 +4096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4131,7 +4126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4161,7 +4156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4191,7 +4186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4221,7 +4216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4251,7 +4246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4281,7 +4276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4311,7 +4306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4341,7 +4336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4371,7 +4366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4398,7 +4393,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4425,7 +4420,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4452,7 +4447,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4479,7 +4474,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4506,7 +4501,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4533,7 +4528,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4560,7 +4555,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4589,7 +4584,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"blank"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4601,30 +4596,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.41796875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.20703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="165.68359375" customWidth="1"/>
-    <col min="15" max="15" width="39.89453125" style="39" customWidth="1"/>
-    <col min="16" max="16" width="196.7890625" style="44" customWidth="1"/>
-    <col min="17" max="17" width="18.7890625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5234375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="165.7109375" customWidth="1"/>
+    <col min="15" max="15" width="39.85546875" style="39" customWidth="1"/>
+    <col min="16" max="16" width="196.85546875" style="44" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.9" thickBot="1">
+    <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4680,7 +4675,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6" customHeight="1">
+    <row r="2" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4705,7 +4700,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="49" t="str">
-        <f t="shared" ref="J2:J33" si="0">D2&amp;G2</f>
+        <f t="shared" ref="J2:J60" si="0">D2&amp;G2</f>
         <v>MJ001</v>
       </c>
       <c r="K2" s="50" t="s">
@@ -4729,7 +4724,7 @@
       <c r="Q2" s="22"/>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4776,7 +4771,7 @@
       <c r="Q3" s="25"/>
       <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -4792,2642 +4787,2514 @@
       <c r="E4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="11" t="str">
+        <f>D4&amp;G4</f>
+        <v>MJ003</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="11" t="str">
+        <f>D5&amp;G5</f>
+        <v>MJ004</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="P5" s="41" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G6" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="11" t="str">
+        <f>D6&amp;G6</f>
+        <v>MJ005</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="11" t="str">
+        <f>D7&amp;G7</f>
+        <v>MJ006</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="49" t="str">
+      <c r="J8" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ007</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K8" s="51" t="s">
         <v>797</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M8" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N8" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O8" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="P4" s="41" t="s">
+      <c r="P8" s="41" t="s">
         <v>677</v>
       </c>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="19"/>
-    </row>
-    <row r="5" spans="1:18" ht="14.7" thickBot="1">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="Q8" s="25"/>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J5" s="49" t="str">
+      <c r="J9" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ008</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K9" s="52" t="s">
         <v>798</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M9" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N9" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O9" s="37" t="s">
         <v>575</v>
       </c>
-      <c r="P5" s="41" t="s">
+      <c r="P9" s="41" t="s">
         <v>678</v>
       </c>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="19"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="Q9" s="25"/>
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F10" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="11" t="str">
+        <f>D10&amp;G10</f>
+        <v>MJ009</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J6" s="49" t="str">
+      <c r="J11" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ010</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K11" s="51" t="s">
         <v>799</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M11" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N11" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O11" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="P11" s="41" t="s">
         <v>666</v>
       </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-    </row>
-    <row r="7" spans="1:18" ht="14.7" thickBot="1">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="49" t="str">
+      <c r="J12" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ011</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="K12" s="52" t="s">
         <v>800</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M12" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="N12" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O12" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="P7" s="41" t="s">
+      <c r="P12" s="41" t="s">
         <v>667</v>
       </c>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>3</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" s="11" t="str">
+        <f>D13&amp;G13</f>
+        <v>MJ012</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="P13" s="41" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="J8" s="49" t="str">
+      <c r="J14" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ013</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K14" s="51" t="s">
         <v>801</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="28" t="s">
+      <c r="L14" s="2"/>
+      <c r="M14" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N14" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O14" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="P8" s="41" t="s">
+      <c r="P14" s="41" t="s">
         <v>669</v>
       </c>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-    </row>
-    <row r="9" spans="1:18" ht="14.7" thickBot="1">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J9" s="49" t="str">
+      <c r="J15" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ014</v>
       </c>
-      <c r="K9" s="52" t="s">
+      <c r="K15" s="52" t="s">
         <v>802</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M15" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="N15" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O15" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="P9" s="41" t="s">
+      <c r="P15" s="41" t="s">
         <v>670</v>
       </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="J10" s="49" t="str">
+      <c r="J16" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ015</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K16" s="50" t="s">
         <v>803</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M16" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="N16" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O16" s="37" t="s">
         <v>586</v>
       </c>
-      <c r="P10" s="41" t="s">
+      <c r="P16" s="41" t="s">
         <v>679</v>
       </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>3</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F17" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G17" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" s="20" t="str">
+        <f>D17&amp;G17</f>
+        <v>MJ016</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="P17" s="41" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="J11" s="49" t="str">
+      <c r="J18" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ017</v>
       </c>
-      <c r="K11" s="53" t="s">
+      <c r="K18" s="53" t="s">
         <v>804</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M18" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N18" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="O18" s="37" t="s">
         <v>588</v>
       </c>
-      <c r="P11" s="41" t="s">
+      <c r="P18" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <v>3</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="J12" s="49" t="str">
+      <c r="J19" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ018</v>
       </c>
-      <c r="K12" s="51" t="s">
+      <c r="K19" s="51" t="s">
         <v>805</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M19" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N19" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O19" s="37" t="s">
         <v>589</v>
       </c>
-      <c r="P12" s="41" t="s">
+      <c r="P19" s="41" t="s">
         <v>683</v>
       </c>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>3</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="J13" s="49" t="str">
+      <c r="J20" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ019</v>
       </c>
-      <c r="K13" s="51" t="s">
+      <c r="K20" s="51" t="s">
         <v>806</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M20" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="N20" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="O13" s="37" t="s">
+      <c r="O20" s="37" t="s">
         <v>590</v>
       </c>
-      <c r="P13" s="41" t="s">
+      <c r="P20" s="41" t="s">
         <v>684</v>
       </c>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11">
-        <v>3</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>3</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="2" t="str">
+        <f>D21&amp;G21</f>
+        <v>MJ020</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="O21" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="P21" s="41" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>3</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G22" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="2" t="str">
+        <f>D22&amp;G22</f>
+        <v>MJ021</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="O22" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="P22" s="41" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>3</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="J14" s="49" t="str">
+      <c r="J23" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ022</v>
       </c>
-      <c r="K14" s="51" t="s">
+      <c r="K23" s="51" t="s">
         <v>807</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M23" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="N14" s="25" t="s">
+      <c r="N23" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O23" s="37" t="s">
         <v>536</v>
       </c>
-      <c r="P14" s="41" t="s">
+      <c r="P23" s="41" t="s">
         <v>687</v>
       </c>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <v>3</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>3</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="J15" s="49" t="str">
+      <c r="J24" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ023</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K24" s="51" t="s">
         <v>808</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="M24" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="N15" s="25" t="s">
+      <c r="N24" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="O15" s="37" t="s">
+      <c r="O24" s="37" t="s">
         <v>593</v>
       </c>
-      <c r="P15" s="41" t="s">
+      <c r="P24" s="41" t="s">
         <v>688</v>
       </c>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>3</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="J16" s="49" t="str">
+      <c r="J25" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ024</v>
       </c>
-      <c r="K16" s="51" t="s">
+      <c r="K25" s="51" t="s">
         <v>809</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M25" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="N16" s="25" t="s">
+      <c r="N25" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="O16" s="37" t="s">
+      <c r="O25" s="37" t="s">
         <v>594</v>
       </c>
-      <c r="P16" s="41" t="s">
+      <c r="P25" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
-        <v>3</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>3</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="J17" s="49" t="str">
+      <c r="J26" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ025</v>
       </c>
-      <c r="K17" s="51" t="s">
+      <c r="K26" s="51" t="s">
         <v>810</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M26" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N26" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O26" s="37" t="s">
         <v>595</v>
       </c>
-      <c r="P17" s="41" t="s">
+      <c r="P26" s="41" t="s">
         <v>690</v>
       </c>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11">
-        <v>3</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>3</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F27" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="2" t="str">
+        <f>D27&amp;G27</f>
+        <v>MJ026</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="O27" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="P27" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="J18" s="49" t="str">
+      <c r="J28" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ027</v>
       </c>
-      <c r="K18" s="51" t="s">
+      <c r="K28" s="51" t="s">
         <v>811</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M28" s="28" t="s">
         <v>489</v>
       </c>
-      <c r="N18" s="25" t="s">
+      <c r="N28" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="O18" s="37" t="s">
+      <c r="O28" s="37" t="s">
         <v>596</v>
       </c>
-      <c r="P18" s="41" t="s">
+      <c r="P28" s="41" t="s">
         <v>692</v>
       </c>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <v>3</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>3</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G29" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="2" t="str">
+        <f>D29&amp;G29</f>
+        <v>MJ028</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="O29" s="37" t="s">
+        <v>597</v>
+      </c>
+      <c r="P29" s="41" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>3</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="49" t="str">
+      <c r="J30" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ029</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K30" s="51" t="s">
         <v>812</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M30" s="28" t="s">
         <v>490</v>
       </c>
-      <c r="N19" s="25" t="s">
+      <c r="N30" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="O19" s="37" t="s">
+      <c r="O30" s="37" t="s">
         <v>598</v>
       </c>
-      <c r="P19" s="41" t="s">
+      <c r="P30" s="41" t="s">
         <v>694</v>
       </c>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="19"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11">
-        <v>3</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="Q30" s="25"/>
+      <c r="R30" s="19"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>3</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="J20" s="49" t="str">
+      <c r="J31" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ030</v>
       </c>
-      <c r="K20" s="51" t="s">
+      <c r="K31" s="51" t="s">
         <v>813</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M31" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="N31" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="O20" s="37" t="s">
+      <c r="O31" s="37" t="s">
         <v>599</v>
       </c>
-      <c r="P20" s="41" t="s">
+      <c r="P31" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="19"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11">
-        <v>3</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="Q31" s="25"/>
+      <c r="R31" s="19"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>3</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G32" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="2" t="str">
+        <f>D32&amp;G32</f>
+        <v>MJ031</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="P32" s="41" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>3</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="J21" s="49" t="str">
+      <c r="J33" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ032</v>
       </c>
-      <c r="K21" s="51" t="s">
+      <c r="K33" s="51" t="s">
         <v>814</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M33" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="N21" s="25" t="s">
+      <c r="N33" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="O21" s="37" t="s">
+      <c r="O33" s="37" t="s">
         <v>600</v>
       </c>
-      <c r="P21" s="41" t="s">
+      <c r="P33" s="41" t="s">
         <v>697</v>
       </c>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <v>3</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>3</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="2" t="str">
+        <f>D34&amp;G34</f>
+        <v>MJ033</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="N34" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="O34" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="P34" s="41" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>3</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J22" s="49" t="str">
+      <c r="J35" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ034</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K35" s="51" t="s">
         <v>815</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M35" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="N22" s="33" t="s">
+      <c r="N35" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="O22" s="37" t="s">
+      <c r="O35" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="P22" s="47" t="s">
+      <c r="P35" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11">
-        <v>3</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <v>3</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G36" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="2" t="str">
+        <f t="shared" ref="J36:J41" si="1">D36&amp;G36</f>
+        <v>MJ035</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="N36" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="P36" s="41" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <v>3</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>MJ036</v>
+      </c>
+      <c r="M37" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="N37" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="O37" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="P37" s="47" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11">
+        <v>3</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="J38" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>MJ037</v>
+      </c>
+      <c r="M38" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="N38" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="O38" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11">
+        <v>3</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="J39" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>MJ038</v>
+      </c>
+      <c r="M39" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="N39" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11">
+        <v>3</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J40" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>MJ039</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="N40" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="O40" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="19"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11">
+        <v>3</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J41" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>MJ040</v>
+      </c>
+      <c r="M41" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="N41" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="O41" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="19"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11">
+        <v>3</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="J23" s="49" t="str">
+      <c r="J42" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ041</v>
       </c>
-      <c r="K23" s="51" t="s">
+      <c r="K42" s="51" t="s">
         <v>816</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="M23" s="28" t="s">
+      <c r="M42" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="N23" s="33" t="s">
+      <c r="N42" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="O23" s="37" t="s">
+      <c r="O42" s="37" t="s">
         <v>606</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="P42" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11">
-        <v>3</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11">
+        <v>3</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G43" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="J24" s="49" t="str">
+      <c r="J43" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ042</v>
       </c>
-      <c r="K24" s="51" t="s">
+      <c r="K43" s="51" t="s">
         <v>817</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="M24" s="28" t="s">
+      <c r="M43" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="N24" s="33" t="s">
+      <c r="N43" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="O24" s="37" t="s">
+      <c r="O43" s="37" t="s">
         <v>607</v>
       </c>
-      <c r="P24" s="9" t="s">
+      <c r="P43" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11">
-        <v>3</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11">
+        <v>3</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G44" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="J44" s="11" t="str">
+        <f>D44&amp;G44</f>
+        <v>MJ043</v>
+      </c>
+      <c r="M44" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="N44" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="O44" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="19"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11">
+        <v>3</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="J25" s="49" t="str">
+      <c r="J45" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ044</v>
       </c>
-      <c r="K25" s="51" t="s">
+      <c r="K45" s="51" t="s">
         <v>818</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="M45" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="N25" s="33" t="s">
+      <c r="N45" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="O25" s="37" t="s">
+      <c r="O45" s="37" t="s">
         <v>608</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="P45" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11">
-        <v>3</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11">
+        <v>3</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F46" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="J46" s="11" t="str">
+        <f>D46&amp;G46</f>
+        <v>MJ045</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="N46" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="O46" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="19"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11">
+        <v>3</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G47" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="J26" s="49" t="str">
+      <c r="J47" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ046</v>
       </c>
-      <c r="K26" s="51" t="s">
+      <c r="K47" s="51" t="s">
         <v>819</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="28" t="s">
+      <c r="L47" s="2"/>
+      <c r="M47" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="N26" s="33" t="s">
+      <c r="N47" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="O26" s="37" t="s">
+      <c r="O47" s="37" t="s">
         <v>610</v>
       </c>
-      <c r="P26" s="41" t="s">
+      <c r="P47" s="41" t="s">
         <v>711</v>
       </c>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11">
-        <v>3</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11">
+        <v>3</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G48" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J48" s="11" t="str">
+        <f>D48&amp;G48</f>
+        <v>MJ047</v>
+      </c>
+      <c r="M48" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="N48" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="O48" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="P48" s="41" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="19"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11">
+        <v>3</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="J27" s="49" t="str">
+      <c r="J49" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ048</v>
       </c>
-      <c r="K27" s="51" t="s">
+      <c r="K49" s="51" t="s">
         <v>820</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="M49" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="N27" s="33" t="s">
+      <c r="N49" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="O27" s="37" t="s">
+      <c r="O49" s="37" t="s">
         <v>611</v>
       </c>
-      <c r="P27" s="41" t="s">
+      <c r="P49" s="41" t="s">
         <v>712</v>
       </c>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11">
-        <v>3</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="11" t="s">
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11">
+        <v>3</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="J28" s="49" t="str">
+      <c r="J50" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ049</v>
       </c>
-      <c r="K28" s="51" t="s">
+      <c r="K50" s="51" t="s">
         <v>821</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M50" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="N28" s="33" t="s">
+      <c r="N50" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="O28" s="37" t="s">
+      <c r="O50" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="P28" s="41" t="s">
+      <c r="P50" s="41" t="s">
         <v>665</v>
       </c>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="11">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11">
-        <v>3</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="11" t="s">
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11">
+        <v>3</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F51" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="J51" s="11" t="str">
+        <f>D51&amp;G51</f>
+        <v>MJ050</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="N51" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="O51" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="P51" s="41" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="19"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11">
+        <v>3</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="J52" s="11" t="str">
+        <f>D52&amp;G52</f>
+        <v>MJ051</v>
+      </c>
+      <c r="M52" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="N52" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="O52" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="P52" s="41" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="19"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11">
+        <v>3</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G53" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="J29" s="49" t="str">
+      <c r="J53" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ052</v>
       </c>
-      <c r="K29" s="51" t="s">
+      <c r="K53" s="51" t="s">
         <v>822</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="28" t="s">
+      <c r="L53" s="2"/>
+      <c r="M53" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="N29" s="33" t="s">
+      <c r="N53" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="O29" s="37" t="s">
+      <c r="O53" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="P29" s="41" t="s">
+      <c r="P53" s="41" t="s">
         <v>719</v>
       </c>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="11">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11">
-        <v>3</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11">
+        <v>3</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G54" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="J30" s="49" t="str">
+      <c r="J54" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ053</v>
       </c>
-      <c r="K30" s="51" t="s">
+      <c r="K54" s="51" t="s">
         <v>823</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="M30" s="28" t="s">
+      <c r="M54" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="N30" s="33" t="s">
+      <c r="N54" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="O30" s="37" t="s">
+      <c r="O54" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="P30" s="41" t="s">
+      <c r="P54" s="41" t="s">
         <v>720</v>
       </c>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="11">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11">
-        <v>3</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11">
+        <v>3</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F55" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="J55" s="11" t="str">
+        <f>D55&amp;G55</f>
+        <v>MJ054</v>
+      </c>
+      <c r="M55" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="N55" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="O55" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="P55" s="41" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="19"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11">
+        <v>3</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G56" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="J56" s="11" t="str">
+        <f>D56&amp;G56</f>
+        <v>MJ055</v>
+      </c>
+      <c r="M56" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="N56" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="O56" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="P56" s="41" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="19"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+      <c r="B57" s="11">
+        <v>3</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="J31" s="49" t="str">
+      <c r="J57" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ056</v>
       </c>
-      <c r="K31" s="51" t="s">
+      <c r="K57" s="51" t="s">
         <v>824</v>
       </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="28" t="s">
+      <c r="L57" s="2"/>
+      <c r="M57" s="28" t="s">
         <v>493</v>
       </c>
-      <c r="N31" s="33" t="s">
+      <c r="N57" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="O31" s="37" t="s">
+      <c r="O57" s="37" t="s">
         <v>614</v>
       </c>
-      <c r="P31" s="41" t="s">
+      <c r="P57" s="41" t="s">
         <v>716</v>
       </c>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="11">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11">
-        <v>3</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="11">
+        <v>3</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G58" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="J58" s="11" t="str">
+        <f>D58&amp;G58</f>
+        <v>MJ057</v>
+      </c>
+      <c r="M58" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="N58" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="O58" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="P58" s="41" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="19"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+      <c r="B59" s="11">
+        <v>3</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="J32" s="49" t="str">
+      <c r="J59" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ058</v>
       </c>
-      <c r="K32" s="51" t="s">
+      <c r="K59" s="51" t="s">
         <v>825</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L59" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="M32" s="28" t="s">
+      <c r="M59" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="N32" s="33" t="s">
+      <c r="N59" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="O32" s="37" t="s">
+      <c r="O59" s="37" t="s">
         <v>616</v>
       </c>
-      <c r="P32" s="41" t="s">
+      <c r="P59" s="41" t="s">
         <v>718</v>
       </c>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="11">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11">
-        <v>3</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" s="11" t="s">
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+      <c r="B60" s="11">
+        <v>3</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G60" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="J33" s="49" t="str">
+      <c r="J60" s="49" t="str">
         <f t="shared" si="0"/>
         <v>MJ059</v>
       </c>
-      <c r="K33" s="51" t="s">
+      <c r="K60" s="51" t="s">
         <v>826</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="M33" s="28" t="s">
+      <c r="M60" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="N33" s="33" t="s">
+      <c r="N60" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="O33" s="37" t="s">
+      <c r="O60" s="37" t="s">
         <v>617</v>
       </c>
-      <c r="P33" s="41" t="s">
+      <c r="P60" s="41" t="s">
         <v>722</v>
-      </c>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="11">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11">
-        <v>3</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="J34" s="49" t="str">
-        <f t="shared" ref="J34:J65" si="1">D34&amp;G34</f>
-        <v>MJ060</v>
-      </c>
-      <c r="K34" s="51" t="s">
-        <v>827</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="M34" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="N34" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="O34" s="37" t="s">
-        <v>618</v>
-      </c>
-      <c r="P34" s="41" t="s">
-        <v>723</v>
-      </c>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="11">
-        <v>34</v>
-      </c>
-      <c r="B35" s="11">
-        <v>3</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="J35" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ064</v>
-      </c>
-      <c r="K35" s="51" t="s">
-        <v>828</v>
-      </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="N35" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="O35" s="37" t="s">
-        <v>622</v>
-      </c>
-      <c r="P35" s="46" t="s">
-        <v>727</v>
-      </c>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="11">
-        <v>35</v>
-      </c>
-      <c r="B36" s="11">
-        <v>3</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J36" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ065</v>
-      </c>
-      <c r="K36" s="51" t="s">
-        <v>829</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="M36" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="N36" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="O36" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="P36" s="46" t="s">
-        <v>728</v>
-      </c>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="11">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11">
-        <v>3</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ067</v>
-      </c>
-      <c r="K37" s="51" t="s">
-        <v>830</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="M37" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="N37" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="O37" s="37" t="s">
-        <v>624</v>
-      </c>
-      <c r="P37" s="46" t="s">
-        <v>730</v>
-      </c>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="11">
-        <v>37</v>
-      </c>
-      <c r="B38" s="11">
-        <v>3</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ069</v>
-      </c>
-      <c r="K38" s="51" t="s">
-        <v>831</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="M38" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="N38" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="O38" s="37" t="s">
-        <v>626</v>
-      </c>
-      <c r="P38" s="41" t="s">
-        <v>732</v>
-      </c>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-    </row>
-    <row r="39" spans="1:18" ht="28.8">
-      <c r="A39" s="11">
-        <v>38</v>
-      </c>
-      <c r="B39" s="11">
-        <v>3</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ070</v>
-      </c>
-      <c r="K39" s="54" t="s">
-        <v>832</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="M39" s="28" t="s">
-        <v>501</v>
-      </c>
-      <c r="N39" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="O39" s="37" t="s">
-        <v>627</v>
-      </c>
-      <c r="P39" s="41" t="s">
-        <v>736</v>
-      </c>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="11">
-        <v>39</v>
-      </c>
-      <c r="B40" s="11">
-        <v>3</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ072</v>
-      </c>
-      <c r="K40" s="54" t="s">
-        <v>833</v>
-      </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="N40" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="O40" s="37" t="s">
-        <v>629</v>
-      </c>
-      <c r="P40" s="41" t="s">
-        <v>738</v>
-      </c>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="11">
-        <v>40</v>
-      </c>
-      <c r="B41" s="11">
-        <v>3</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="J41" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ073</v>
-      </c>
-      <c r="K41" s="54" t="s">
-        <v>834</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="M41" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="N41" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="O41" s="37" t="s">
-        <v>630</v>
-      </c>
-      <c r="P41" s="41" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="11">
-        <v>41</v>
-      </c>
-      <c r="B42" s="11">
-        <v>3</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="J42" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ075</v>
-      </c>
-      <c r="K42" s="54" t="s">
-        <v>835</v>
-      </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="N42" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="O42" s="37" t="s">
-        <v>632</v>
-      </c>
-      <c r="P42" s="41" t="s">
-        <v>735</v>
-      </c>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="11">
-        <v>42</v>
-      </c>
-      <c r="B43" s="11">
-        <v>3</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="J43" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ076</v>
-      </c>
-      <c r="K43" s="54" t="s">
-        <v>836</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="M43" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="N43" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="O43" s="37" t="s">
-        <v>633</v>
-      </c>
-      <c r="P43" s="41" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="11">
-        <v>43</v>
-      </c>
-      <c r="B44" s="11">
-        <v>3</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="J44" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ077</v>
-      </c>
-      <c r="K44" s="54" t="s">
-        <v>837</v>
-      </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="N44" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="O44" s="37" t="s">
-        <v>634</v>
-      </c>
-      <c r="P44" s="41" t="s">
-        <v>740</v>
-      </c>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="11">
-        <v>44</v>
-      </c>
-      <c r="B45" s="11">
-        <v>3</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="J45" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ079</v>
-      </c>
-      <c r="K45" s="54" t="s">
-        <v>838</v>
-      </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="28" t="s">
-        <v>502</v>
-      </c>
-      <c r="N45" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="O45" s="37" t="s">
-        <v>635</v>
-      </c>
-      <c r="P45" s="41" t="s">
-        <v>742</v>
-      </c>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="11">
-        <v>45</v>
-      </c>
-      <c r="B46" s="11">
-        <v>3</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J46" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ081</v>
-      </c>
-      <c r="K46" s="54" t="s">
-        <v>839</v>
-      </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="N46" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="O46" s="37" t="s">
-        <v>637</v>
-      </c>
-      <c r="P46" s="41" t="s">
-        <v>744</v>
-      </c>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="11">
-        <v>46</v>
-      </c>
-      <c r="B47" s="11">
-        <v>3</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="J47" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ082</v>
-      </c>
-      <c r="K47" s="54" t="s">
-        <v>840</v>
-      </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="N47" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="O47" s="37" t="s">
-        <v>638</v>
-      </c>
-      <c r="P47" s="41" t="s">
-        <v>745</v>
-      </c>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="11">
-        <v>47</v>
-      </c>
-      <c r="B48" s="11">
-        <v>3</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="J48" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ083</v>
-      </c>
-      <c r="K48" s="54" t="s">
-        <v>841</v>
-      </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="N48" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="O48" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="P48" s="41" t="s">
-        <v>746</v>
-      </c>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-    </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="11">
-        <v>48</v>
-      </c>
-      <c r="B49" s="11">
-        <v>3</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="J49" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ087</v>
-      </c>
-      <c r="K49" s="54" t="s">
-        <v>842</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="M49" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="N49" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="O49" s="37" t="s">
-        <v>641</v>
-      </c>
-      <c r="P49" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-    </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="11">
-        <v>49</v>
-      </c>
-      <c r="B50" s="11">
-        <v>3</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="J50" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ088</v>
-      </c>
-      <c r="K50" s="54" t="s">
-        <v>843</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="M50" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="N50" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="O50" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="P50" s="41" t="s">
-        <v>751</v>
-      </c>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-    </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="11">
-        <v>50</v>
-      </c>
-      <c r="B51" s="11">
-        <v>3</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="J51" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ089</v>
-      </c>
-      <c r="K51" s="54" t="s">
-        <v>844</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="N51" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="O51" s="37" t="s">
-        <v>643</v>
-      </c>
-      <c r="P51" s="41" t="s">
-        <v>752</v>
-      </c>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-    </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="11">
-        <v>51</v>
-      </c>
-      <c r="B52" s="11">
-        <v>3</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="J52" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ090</v>
-      </c>
-      <c r="K52" s="54" t="s">
-        <v>845</v>
-      </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="N52" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="O52" s="37" t="s">
-        <v>644</v>
-      </c>
-      <c r="P52" s="41" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="11">
-        <v>52</v>
-      </c>
-      <c r="B53" s="11">
-        <v>3</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="J53" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ093</v>
-      </c>
-      <c r="K53" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="M53" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="N53" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="O53" s="37" t="s">
-        <v>647</v>
-      </c>
-      <c r="P53" s="41" t="s">
-        <v>756</v>
-      </c>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-    </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="11">
-        <v>53</v>
-      </c>
-      <c r="B54" s="11">
-        <v>3</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="J54" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ094</v>
-      </c>
-      <c r="K54" s="54" t="s">
-        <v>847</v>
-      </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="N54" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="O54" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="P54" s="41" t="s">
-        <v>757</v>
-      </c>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-    </row>
-    <row r="55" spans="1:18">
-      <c r="A55" s="11">
-        <v>54</v>
-      </c>
-      <c r="B55" s="11">
-        <v>3</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="J55" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ095</v>
-      </c>
-      <c r="K55" s="54" t="s">
-        <v>848</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="M55" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="N55" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="O55" s="37" t="s">
-        <v>554</v>
-      </c>
-      <c r="P55" s="41" t="s">
-        <v>758</v>
-      </c>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-    </row>
-    <row r="56" spans="1:18">
-      <c r="A56" s="11">
-        <v>55</v>
-      </c>
-      <c r="B56" s="11">
-        <v>3</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="J56" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ098</v>
-      </c>
-      <c r="K56" s="54" t="s">
-        <v>849</v>
-      </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="N56" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="O56" s="37" t="s">
-        <v>650</v>
-      </c>
-      <c r="P56" s="41" t="s">
-        <v>761</v>
-      </c>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-    </row>
-    <row r="57" spans="1:18">
-      <c r="A57" s="11">
-        <v>56</v>
-      </c>
-      <c r="B57" s="11">
-        <v>3</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="J57" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ099</v>
-      </c>
-      <c r="K57" s="54" t="s">
-        <v>850</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="M57" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="N57" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="O57" s="37" t="s">
-        <v>651</v>
-      </c>
-      <c r="P57" s="41" t="s">
-        <v>762</v>
-      </c>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-    </row>
-    <row r="58" spans="1:18">
-      <c r="A58" s="11">
-        <v>57</v>
-      </c>
-      <c r="B58" s="11">
-        <v>3</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="J58" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ101</v>
-      </c>
-      <c r="K58" s="54" t="s">
-        <v>851</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="M58" s="28" t="s">
-        <v>503</v>
-      </c>
-      <c r="N58" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="O58" s="37" t="s">
-        <v>653</v>
-      </c>
-      <c r="P58" s="41" t="s">
-        <v>764</v>
-      </c>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-    </row>
-    <row r="59" spans="1:18">
-      <c r="A59" s="11">
-        <v>58</v>
-      </c>
-      <c r="B59" s="11">
-        <v>3</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="J59" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ102</v>
-      </c>
-      <c r="K59" s="54" t="s">
-        <v>852</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="M59" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="N59" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="O59" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="P59" s="41" t="s">
-        <v>765</v>
-      </c>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-    </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="11">
-        <v>59</v>
-      </c>
-      <c r="B60" s="11">
-        <v>3</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="J60" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ003</v>
-      </c>
-      <c r="M60" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="N60" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="O60" s="37" t="s">
-        <v>532</v>
-      </c>
-      <c r="P60" s="41" t="s">
-        <v>673</v>
       </c>
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -7444,31 +7311,37 @@
         <v>99</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J61" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ004</v>
+        <v>309</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="J61" s="49" t="str">
+        <f t="shared" ref="J61:J103" si="2">D61&amp;G61</f>
+        <v>MJ060</v>
+      </c>
+      <c r="K61" s="51" t="s">
+        <v>827</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>854</v>
       </c>
       <c r="M61" s="28" t="s">
-        <v>171</v>
+        <v>496</v>
       </c>
       <c r="N61" s="33" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="O61" s="37" t="s">
-        <v>573</v>
+        <v>618</v>
       </c>
       <c r="P61" s="41" t="s">
-        <v>674</v>
+        <v>723</v>
       </c>
       <c r="Q61" s="19"/>
       <c r="R61" s="19"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -7485,31 +7358,31 @@
         <v>99</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="J62" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ005</v>
+        <f>D62&amp;G62</f>
+        <v>MJ061</v>
       </c>
       <c r="M62" s="28" t="s">
-        <v>172</v>
+        <v>311</v>
       </c>
       <c r="N62" s="33" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="O62" s="37" t="s">
-        <v>574</v>
+        <v>619</v>
       </c>
       <c r="P62" s="41" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q62" s="19"/>
+        <v>724</v>
+      </c>
+      <c r="Q62" s="25"/>
       <c r="R62" s="19"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -7526,31 +7399,31 @@
         <v>99</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>148</v>
+        <v>309</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="J63" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ006</v>
+        <f>D63&amp;G63</f>
+        <v>MJ062</v>
       </c>
       <c r="M63" s="28" t="s">
-        <v>173</v>
+        <v>312</v>
       </c>
       <c r="N63" s="33" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="O63" s="37" t="s">
-        <v>533</v>
+        <v>620</v>
       </c>
       <c r="P63" s="41" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q63" s="19"/>
+        <v>725</v>
+      </c>
+      <c r="Q63" s="25"/>
       <c r="R63" s="19"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -7567,31 +7440,31 @@
         <v>99</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="J64" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ009</v>
+        <f>D64&amp;G64</f>
+        <v>MJ063</v>
       </c>
       <c r="M64" s="28" t="s">
-        <v>177</v>
+        <v>461</v>
       </c>
       <c r="N64" s="33" t="s">
-        <v>368</v>
+        <v>460</v>
       </c>
       <c r="O64" s="37" t="s">
-        <v>576</v>
+        <v>621</v>
       </c>
       <c r="P64" s="41" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q64" s="19"/>
+        <v>726</v>
+      </c>
+      <c r="Q64" s="25"/>
       <c r="R64" s="19"/>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -7608,31 +7481,35 @@
         <v>99</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J65" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>MJ012</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="J65" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>MJ064</v>
+      </c>
+      <c r="K65" s="51" t="s">
+        <v>828</v>
+      </c>
+      <c r="L65" s="2"/>
       <c r="M65" s="28" t="s">
-        <v>180</v>
+        <v>314</v>
       </c>
       <c r="N65" s="33" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="O65" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="P65" s="41" t="s">
-        <v>668</v>
+        <v>622</v>
+      </c>
+      <c r="P65" s="46" t="s">
+        <v>727</v>
       </c>
       <c r="Q65" s="19"/>
       <c r="R65" s="19"/>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -7648,32 +7525,38 @@
       <c r="E66" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F66" s="23" t="s">
-        <v>581</v>
+      <c r="F66" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="J66" s="20" t="str">
-        <f t="shared" ref="J66:J97" si="2">D66&amp;G66</f>
-        <v>MJ016</v>
-      </c>
-      <c r="M66" s="29" t="s">
-        <v>583</v>
-      </c>
-      <c r="N66" s="35" t="s">
-        <v>375</v>
+        <v>231</v>
+      </c>
+      <c r="J66" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>MJ065</v>
+      </c>
+      <c r="K66" s="51" t="s">
+        <v>829</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="M66" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="N66" s="33" t="s">
+        <v>497</v>
       </c>
       <c r="O66" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="P66" s="41" t="s">
-        <v>680</v>
+        <v>549</v>
+      </c>
+      <c r="P66" s="46" t="s">
+        <v>728</v>
       </c>
       <c r="Q66" s="19"/>
       <c r="R66" s="19"/>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -7690,33 +7573,33 @@
         <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>MJ020</v>
+        <v>232</v>
+      </c>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="11" t="str">
+        <f>D67&amp;G67</f>
+        <v>MJ066</v>
       </c>
       <c r="M67" s="28" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="N67" s="33" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="O67" s="37" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="P67" s="41" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q67" s="19"/>
+        <v>729</v>
+      </c>
+      <c r="Q67" s="25"/>
       <c r="R67" s="19"/>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -7733,33 +7616,39 @@
         <v>99</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="2" t="str">
+        <v>233</v>
+      </c>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ021</v>
+        <v>MJ067</v>
+      </c>
+      <c r="K68" s="51" t="s">
+        <v>830</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="M68" s="28" t="s">
-        <v>273</v>
+        <v>499</v>
       </c>
       <c r="N68" s="33" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="O68" s="37" t="s">
-        <v>592</v>
-      </c>
-      <c r="P68" s="41" t="s">
-        <v>686</v>
+        <v>624</v>
+      </c>
+      <c r="P68" s="46" t="s">
+        <v>730</v>
       </c>
       <c r="Q68" s="19"/>
       <c r="R68" s="19"/>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -7776,33 +7665,33 @@
         <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>MJ026</v>
+        <v>234</v>
+      </c>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="11" t="str">
+        <f>D69&amp;G69</f>
+        <v>MJ068</v>
       </c>
       <c r="M69" s="28" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="N69" s="33" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="O69" s="37" t="s">
-        <v>537</v>
+        <v>625</v>
       </c>
       <c r="P69" s="41" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q69" s="19"/>
+        <v>731</v>
+      </c>
+      <c r="Q69" s="25"/>
       <c r="R69" s="19"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -7819,33 +7708,39 @@
         <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="2" t="str">
+        <v>235</v>
+      </c>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ028</v>
+        <v>MJ069</v>
+      </c>
+      <c r="K70" s="51" t="s">
+        <v>831</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>854</v>
       </c>
       <c r="M70" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="N70" s="36" t="s">
-        <v>386</v>
+        <v>500</v>
+      </c>
+      <c r="N70" s="33" t="s">
+        <v>425</v>
       </c>
       <c r="O70" s="37" t="s">
-        <v>597</v>
+        <v>626</v>
       </c>
       <c r="P70" s="41" t="s">
-        <v>693</v>
+        <v>732</v>
       </c>
       <c r="Q70" s="19"/>
       <c r="R70" s="19"/>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -7862,33 +7757,39 @@
         <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="2" t="str">
+        <v>236</v>
+      </c>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ031</v>
+        <v>MJ070</v>
+      </c>
+      <c r="K71" s="54" t="s">
+        <v>832</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="M71" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="N71" s="33" t="s">
-        <v>389</v>
+        <v>501</v>
+      </c>
+      <c r="N71" s="34" t="s">
+        <v>426</v>
       </c>
       <c r="O71" s="37" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="P71" s="41" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -7905,33 +7806,33 @@
         <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>MJ033</v>
+        <v>237</v>
+      </c>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="11" t="str">
+        <f>D72&amp;G72</f>
+        <v>MJ071</v>
       </c>
       <c r="M72" s="28" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="N72" s="33" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="O72" s="37" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="P72" s="41" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q72" s="19"/>
+        <v>737</v>
+      </c>
+      <c r="Q72" s="25"/>
       <c r="R72" s="19"/>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -7948,33 +7849,37 @@
         <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="2" t="str">
+        <v>238</v>
+      </c>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ035</v>
-      </c>
+        <v>MJ072</v>
+      </c>
+      <c r="K73" s="54" t="s">
+        <v>833</v>
+      </c>
+      <c r="L73" s="2"/>
       <c r="M73" s="28" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="N73" s="33" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="O73" s="37" t="s">
-        <v>539</v>
+        <v>629</v>
       </c>
       <c r="P73" s="41" t="s">
-        <v>699</v>
+        <v>738</v>
       </c>
       <c r="Q73" s="19"/>
       <c r="R73" s="19"/>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -7990,32 +7895,38 @@
       <c r="E74" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>288</v>
+      <c r="F74" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="J74" s="11" t="str">
+        <v>239</v>
+      </c>
+      <c r="J74" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ036</v>
-      </c>
-      <c r="M74" s="30" t="s">
-        <v>491</v>
+        <v>MJ073</v>
+      </c>
+      <c r="K74" s="54" t="s">
+        <v>834</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="M74" s="28" t="s">
+        <v>318</v>
       </c>
       <c r="N74" s="33" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="O74" s="37" t="s">
-        <v>603</v>
-      </c>
-      <c r="P74" s="47" t="s">
-        <v>700</v>
+        <v>630</v>
+      </c>
+      <c r="P74" s="41" t="s">
+        <v>733</v>
       </c>
       <c r="Q74" s="19"/>
       <c r="R74" s="19"/>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -8032,31 +7943,31 @@
         <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="J75" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>MJ037</v>
+        <f>D75&amp;G75</f>
+        <v>MJ074</v>
       </c>
       <c r="M75" s="28" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="N75" s="33" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="O75" s="37" t="s">
-        <v>540</v>
-      </c>
-      <c r="P75" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q75" s="19"/>
+        <v>631</v>
+      </c>
+      <c r="P75" s="41" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q75" s="25"/>
       <c r="R75" s="19"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -8073,31 +7984,35 @@
         <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="J76" s="11" t="str">
+        <v>241</v>
+      </c>
+      <c r="J76" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ038</v>
-      </c>
+        <v>MJ075</v>
+      </c>
+      <c r="K76" s="54" t="s">
+        <v>835</v>
+      </c>
+      <c r="L76" s="2"/>
       <c r="M76" s="28" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="N76" s="33" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="O76" s="37" t="s">
-        <v>604</v>
-      </c>
-      <c r="P76" s="9" t="s">
-        <v>702</v>
+        <v>632</v>
+      </c>
+      <c r="P76" s="41" t="s">
+        <v>735</v>
       </c>
       <c r="Q76" s="19"/>
       <c r="R76" s="19"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -8114,31 +8029,37 @@
         <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="J77" s="11" t="str">
+        <v>242</v>
+      </c>
+      <c r="J77" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ039</v>
+        <v>MJ076</v>
+      </c>
+      <c r="K77" s="54" t="s">
+        <v>836</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>854</v>
       </c>
       <c r="M77" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="N77" s="45" t="s">
-        <v>397</v>
+        <v>326</v>
+      </c>
+      <c r="N77" s="33" t="s">
+        <v>432</v>
       </c>
       <c r="O77" s="37" t="s">
-        <v>605</v>
-      </c>
-      <c r="P77" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="Q77" s="25"/>
+        <v>633</v>
+      </c>
+      <c r="P77" s="41" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q77" s="19"/>
       <c r="R77" s="19"/>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>77</v>
       </c>
@@ -8155,31 +8076,35 @@
         <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="J78" s="11" t="str">
+        <v>243</v>
+      </c>
+      <c r="J78" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ040</v>
-      </c>
+        <v>MJ077</v>
+      </c>
+      <c r="K78" s="54" t="s">
+        <v>837</v>
+      </c>
+      <c r="L78" s="2"/>
       <c r="M78" s="28" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="N78" s="33" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="O78" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="P78" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q78" s="25"/>
+        <v>634</v>
+      </c>
+      <c r="P78" s="41" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q78" s="19"/>
       <c r="R78" s="19"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>78</v>
       </c>
@@ -8196,31 +8121,31 @@
         <v>99</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="J79" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>MJ043</v>
+        <f>D79&amp;G79</f>
+        <v>MJ078</v>
       </c>
       <c r="M79" s="28" t="s">
-        <v>492</v>
+        <v>328</v>
       </c>
       <c r="N79" s="33" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="O79" s="37" t="s">
-        <v>542</v>
-      </c>
-      <c r="P79" s="9" t="s">
-        <v>707</v>
+        <v>550</v>
+      </c>
+      <c r="P79" s="41" t="s">
+        <v>741</v>
       </c>
       <c r="Q79" s="25"/>
       <c r="R79" s="19"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>79</v>
       </c>
@@ -8237,31 +8162,35 @@
         <v>99</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="J80" s="11" t="str">
+        <v>245</v>
+      </c>
+      <c r="J80" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ045</v>
-      </c>
+        <v>MJ079</v>
+      </c>
+      <c r="K80" s="54" t="s">
+        <v>838</v>
+      </c>
+      <c r="L80" s="2"/>
       <c r="M80" s="28" t="s">
-        <v>297</v>
+        <v>502</v>
       </c>
       <c r="N80" s="33" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="O80" s="37" t="s">
-        <v>609</v>
-      </c>
-      <c r="P80" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="Q80" s="25"/>
+        <v>635</v>
+      </c>
+      <c r="P80" s="41" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q80" s="19"/>
       <c r="R80" s="19"/>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>80</v>
       </c>
@@ -8278,31 +8207,31 @@
         <v>99</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="J81" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>MJ047</v>
+        <f>D81&amp;G81</f>
+        <v>MJ080</v>
       </c>
       <c r="M81" s="28" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N81" s="33" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="O81" s="37" t="s">
-        <v>543</v>
+        <v>636</v>
       </c>
       <c r="P81" s="41" t="s">
-        <v>664</v>
+        <v>743</v>
       </c>
       <c r="Q81" s="25"/>
       <c r="R81" s="19"/>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>81</v>
       </c>
@@ -8319,31 +8248,35 @@
         <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="J82" s="11" t="str">
+        <v>247</v>
+      </c>
+      <c r="J82" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ050</v>
-      </c>
+        <v>MJ081</v>
+      </c>
+      <c r="K82" s="54" t="s">
+        <v>839</v>
+      </c>
+      <c r="L82" s="2"/>
       <c r="M82" s="28" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="N82" s="33" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="O82" s="37" t="s">
-        <v>545</v>
+        <v>637</v>
       </c>
       <c r="P82" s="41" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q82" s="25"/>
+        <v>744</v>
+      </c>
+      <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>82</v>
       </c>
@@ -8360,31 +8293,35 @@
         <v>99</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="J83" s="11" t="str">
+        <v>248</v>
+      </c>
+      <c r="J83" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ051</v>
-      </c>
+        <v>MJ082</v>
+      </c>
+      <c r="K83" s="54" t="s">
+        <v>840</v>
+      </c>
+      <c r="L83" s="2"/>
       <c r="M83" s="28" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="N83" s="33" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="O83" s="37" t="s">
-        <v>546</v>
+        <v>638</v>
       </c>
       <c r="P83" s="41" t="s">
-        <v>714</v>
-      </c>
-      <c r="Q83" s="25"/>
+        <v>745</v>
+      </c>
+      <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>83</v>
       </c>
@@ -8401,31 +8338,35 @@
         <v>99</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="J84" s="11" t="str">
+        <v>249</v>
+      </c>
+      <c r="J84" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ054</v>
-      </c>
+        <v>MJ083</v>
+      </c>
+      <c r="K84" s="54" t="s">
+        <v>841</v>
+      </c>
+      <c r="L84" s="2"/>
       <c r="M84" s="28" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="N84" s="33" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="O84" s="37" t="s">
-        <v>612</v>
+        <v>551</v>
       </c>
       <c r="P84" s="41" t="s">
-        <v>721</v>
-      </c>
-      <c r="Q84" s="25"/>
+        <v>746</v>
+      </c>
+      <c r="Q84" s="19"/>
       <c r="R84" s="19"/>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>84</v>
       </c>
@@ -8442,31 +8383,31 @@
         <v>99</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="J85" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>MJ055</v>
+        <f t="shared" ref="J85:J86" si="3">D85&amp;G85</f>
+        <v>MJ084</v>
       </c>
       <c r="M85" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="N85" s="34" t="s">
-        <v>413</v>
+        <v>335</v>
+      </c>
+      <c r="N85" s="33" t="s">
+        <v>440</v>
       </c>
       <c r="O85" s="37" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="P85" s="41" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="Q85" s="25"/>
       <c r="R85" s="19"/>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>85</v>
       </c>
@@ -8483,31 +8424,31 @@
         <v>99</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="J86" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>MJ057</v>
+        <f t="shared" si="3"/>
+        <v>MJ085</v>
       </c>
       <c r="M86" s="28" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="N86" s="33" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="O86" s="37" t="s">
-        <v>615</v>
+        <v>552</v>
       </c>
       <c r="P86" s="41" t="s">
-        <v>717</v>
+        <v>748</v>
       </c>
       <c r="Q86" s="25"/>
       <c r="R86" s="19"/>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>86</v>
       </c>
@@ -8524,31 +8465,31 @@
         <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="J87" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>MJ061</v>
+        <f>D87&amp;G87</f>
+        <v>MJ086</v>
       </c>
       <c r="M87" s="28" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="N87" s="33" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="O87" s="37" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="P87" s="41" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="Q87" s="25"/>
       <c r="R87" s="19"/>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>87</v>
       </c>
@@ -8565,31 +8506,37 @@
         <v>99</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="J88" s="11" t="str">
+        <v>253</v>
+      </c>
+      <c r="J88" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ062</v>
+        <v>MJ087</v>
+      </c>
+      <c r="K88" s="54" t="s">
+        <v>842</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="M88" s="28" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="N88" s="33" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="O88" s="37" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="P88" s="41" t="s">
-        <v>725</v>
-      </c>
-      <c r="Q88" s="25"/>
+        <v>750</v>
+      </c>
+      <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>88</v>
       </c>
@@ -8606,31 +8553,37 @@
         <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="J89" s="11" t="str">
+        <v>254</v>
+      </c>
+      <c r="J89" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ063</v>
+        <v>MJ088</v>
+      </c>
+      <c r="K89" s="54" t="s">
+        <v>843</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="M89" s="28" t="s">
-        <v>461</v>
+        <v>340</v>
       </c>
       <c r="N89" s="33" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="O89" s="37" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="P89" s="41" t="s">
-        <v>726</v>
-      </c>
-      <c r="Q89" s="25"/>
+        <v>751</v>
+      </c>
+      <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>89</v>
       </c>
@@ -8647,33 +8600,37 @@
         <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="11" t="str">
+        <v>255</v>
+      </c>
+      <c r="J90" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ066</v>
+        <v>MJ089</v>
+      </c>
+      <c r="K90" s="54" t="s">
+        <v>844</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="M90" s="28" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="N90" s="33" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="O90" s="37" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="P90" s="41" t="s">
-        <v>729</v>
-      </c>
-      <c r="Q90" s="25"/>
+        <v>752</v>
+      </c>
+      <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>90</v>
       </c>
@@ -8690,33 +8647,35 @@
         <v>99</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="H91" s="45"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="11" t="str">
+        <v>256</v>
+      </c>
+      <c r="J91" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ068</v>
-      </c>
+        <v>MJ090</v>
+      </c>
+      <c r="K91" s="54" t="s">
+        <v>845</v>
+      </c>
+      <c r="L91" s="2"/>
       <c r="M91" s="28" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="N91" s="33" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="O91" s="37" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="P91" s="41" t="s">
-        <v>731</v>
-      </c>
-      <c r="Q91" s="25"/>
+        <v>753</v>
+      </c>
+      <c r="Q91" s="19"/>
       <c r="R91" s="19"/>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>91</v>
       </c>
@@ -8733,33 +8692,31 @@
         <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
+        <v>257</v>
+      </c>
       <c r="J92" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>MJ071</v>
+        <f>D92&amp;G92</f>
+        <v>MJ091</v>
       </c>
       <c r="M92" s="28" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="N92" s="33" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="O92" s="37" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="P92" s="41" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="Q92" s="25"/>
       <c r="R92" s="19"/>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>92</v>
       </c>
@@ -8776,31 +8733,31 @@
         <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="J93" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>MJ074</v>
+        <f>D93&amp;G93</f>
+        <v>MJ092</v>
       </c>
       <c r="M93" s="28" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="N93" s="33" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="O93" s="37" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="P93" s="41" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
       <c r="Q93" s="25"/>
       <c r="R93" s="19"/>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>93</v>
       </c>
@@ -8817,31 +8774,37 @@
         <v>99</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J94" s="11" t="str">
+        <v>259</v>
+      </c>
+      <c r="J94" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ078</v>
+        <v>MJ093</v>
+      </c>
+      <c r="K94" s="54" t="s">
+        <v>846</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>854</v>
       </c>
       <c r="M94" s="28" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="N94" s="33" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="O94" s="37" t="s">
-        <v>550</v>
+        <v>647</v>
       </c>
       <c r="P94" s="41" t="s">
-        <v>741</v>
-      </c>
-      <c r="Q94" s="25"/>
+        <v>756</v>
+      </c>
+      <c r="Q94" s="19"/>
       <c r="R94" s="19"/>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>94</v>
       </c>
@@ -8858,31 +8821,35 @@
         <v>99</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="J95" s="11" t="str">
+        <v>260</v>
+      </c>
+      <c r="J95" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ080</v>
-      </c>
+        <v>MJ094</v>
+      </c>
+      <c r="K95" s="54" t="s">
+        <v>847</v>
+      </c>
+      <c r="L95" s="2"/>
       <c r="M95" s="28" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="N95" s="33" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="O95" s="37" t="s">
-        <v>636</v>
+        <v>553</v>
       </c>
       <c r="P95" s="41" t="s">
-        <v>743</v>
-      </c>
-      <c r="Q95" s="25"/>
+        <v>757</v>
+      </c>
+      <c r="Q95" s="19"/>
       <c r="R95" s="19"/>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>95</v>
       </c>
@@ -8899,31 +8866,37 @@
         <v>99</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="J96" s="11" t="str">
+        <v>261</v>
+      </c>
+      <c r="J96" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>MJ084</v>
+        <v>MJ095</v>
+      </c>
+      <c r="K96" s="54" t="s">
+        <v>848</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>854</v>
       </c>
       <c r="M96" s="28" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="N96" s="33" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="O96" s="37" t="s">
-        <v>639</v>
+        <v>554</v>
       </c>
       <c r="P96" s="41" t="s">
-        <v>747</v>
-      </c>
-      <c r="Q96" s="25"/>
+        <v>758</v>
+      </c>
+      <c r="Q96" s="19"/>
       <c r="R96" s="19"/>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>96</v>
       </c>
@@ -8940,31 +8913,31 @@
         <v>99</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="J97" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>MJ085</v>
+        <f>D97&amp;G97</f>
+        <v>MJ096</v>
       </c>
       <c r="M97" s="28" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="N97" s="33" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="O97" s="37" t="s">
-        <v>552</v>
+        <v>648</v>
       </c>
       <c r="P97" s="41" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="Q97" s="25"/>
       <c r="R97" s="19"/>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>97</v>
       </c>
@@ -8981,31 +8954,31 @@
         <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="J98" s="11" t="str">
-        <f t="shared" ref="J98:J130" si="3">D98&amp;G98</f>
-        <v>MJ086</v>
+        <f>D98&amp;G98</f>
+        <v>MJ097</v>
       </c>
       <c r="M98" s="28" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="N98" s="33" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="O98" s="37" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="P98" s="41" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="Q98" s="25"/>
       <c r="R98" s="19"/>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>98</v>
       </c>
@@ -9022,31 +8995,35 @@
         <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J99" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>MJ091</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="J99" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>MJ098</v>
+      </c>
+      <c r="K99" s="54" t="s">
+        <v>849</v>
+      </c>
+      <c r="L99" s="2"/>
       <c r="M99" s="28" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="N99" s="33" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="O99" s="37" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="P99" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q99" s="25"/>
+        <v>761</v>
+      </c>
+      <c r="Q99" s="19"/>
       <c r="R99" s="19"/>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>99</v>
       </c>
@@ -9063,31 +9040,37 @@
         <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J100" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>MJ092</v>
+        <v>265</v>
+      </c>
+      <c r="J100" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>MJ099</v>
+      </c>
+      <c r="K100" s="54" t="s">
+        <v>850</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>854</v>
       </c>
       <c r="M100" s="28" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="N100" s="33" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="O100" s="37" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="P100" s="41" t="s">
-        <v>755</v>
-      </c>
-      <c r="Q100" s="25"/>
+        <v>762</v>
+      </c>
+      <c r="Q100" s="19"/>
       <c r="R100" s="19"/>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>100</v>
       </c>
@@ -9104,31 +9087,31 @@
         <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J101" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>MJ096</v>
+        <f>D101&amp;G101</f>
+        <v>MJ100</v>
       </c>
       <c r="M101" s="28" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="N101" s="33" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O101" s="37" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="P101" s="41" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="Q101" s="25"/>
       <c r="R101" s="19"/>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>101</v>
       </c>
@@ -9145,31 +9128,37 @@
         <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="J102" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>MJ097</v>
+        <v>267</v>
+      </c>
+      <c r="J102" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>MJ101</v>
+      </c>
+      <c r="K102" s="54" t="s">
+        <v>851</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="M102" s="28" t="s">
-        <v>351</v>
+        <v>503</v>
       </c>
       <c r="N102" s="33" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="O102" s="37" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="P102" s="41" t="s">
-        <v>760</v>
-      </c>
-      <c r="Q102" s="25"/>
+        <v>764</v>
+      </c>
+      <c r="Q102" s="19"/>
       <c r="R102" s="19"/>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>102</v>
       </c>
@@ -9186,31 +9175,37 @@
         <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="J103" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>MJ100</v>
+        <v>268</v>
+      </c>
+      <c r="J103" s="49" t="str">
+        <f t="shared" si="2"/>
+        <v>MJ102</v>
+      </c>
+      <c r="K103" s="54" t="s">
+        <v>852</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="M103" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N103" s="33" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O103" s="37" t="s">
-        <v>652</v>
+        <v>555</v>
       </c>
       <c r="P103" s="41" t="s">
-        <v>763</v>
-      </c>
-      <c r="Q103" s="25"/>
+        <v>765</v>
+      </c>
+      <c r="Q103" s="19"/>
       <c r="R103" s="19"/>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>103</v>
       </c>
@@ -9233,7 +9228,7 @@
         <v>353</v>
       </c>
       <c r="J104" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J104:J130" si="4">D104&amp;G104</f>
         <v>MJ103</v>
       </c>
       <c r="M104" s="29" t="s">
@@ -9251,7 +9246,7 @@
       <c r="Q104" s="25"/>
       <c r="R104" s="19"/>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>104</v>
       </c>
@@ -9276,7 +9271,7 @@
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
       <c r="J105" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ201</v>
       </c>
       <c r="M105" s="28" t="s">
@@ -9294,7 +9289,7 @@
       <c r="Q105" s="25"/>
       <c r="R105" s="19"/>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>105</v>
       </c>
@@ -9319,7 +9314,7 @@
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ202</v>
       </c>
       <c r="M106" s="28" t="s">
@@ -9337,7 +9332,7 @@
       <c r="Q106" s="25"/>
       <c r="R106" s="19"/>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>106</v>
       </c>
@@ -9362,7 +9357,7 @@
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
       <c r="J107" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ203</v>
       </c>
       <c r="M107" s="28" t="s">
@@ -9380,7 +9375,7 @@
       <c r="Q107" s="25"/>
       <c r="R107" s="19"/>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>107</v>
       </c>
@@ -9405,7 +9400,7 @@
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
       <c r="J108" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ204</v>
       </c>
       <c r="M108" s="28" t="s">
@@ -9423,7 +9418,7 @@
       <c r="Q108" s="25"/>
       <c r="R108" s="19"/>
     </row>
-    <row r="109" spans="1:18" ht="28.8">
+    <row r="109" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>108</v>
       </c>
@@ -9448,7 +9443,7 @@
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
       <c r="J109" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ205</v>
       </c>
       <c r="M109" s="28" t="s">
@@ -9466,7 +9461,7 @@
       <c r="Q109" s="25"/>
       <c r="R109" s="19"/>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>109</v>
       </c>
@@ -9491,7 +9486,7 @@
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
       <c r="J110" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ206</v>
       </c>
       <c r="M110" s="28" t="s">
@@ -9509,7 +9504,7 @@
       <c r="Q110" s="25"/>
       <c r="R110" s="19"/>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>110</v>
       </c>
@@ -9534,7 +9529,7 @@
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
       <c r="J111" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ207</v>
       </c>
       <c r="M111" s="28" t="s">
@@ -9552,7 +9547,7 @@
       <c r="Q111" s="25"/>
       <c r="R111" s="19"/>
     </row>
-    <row r="112" spans="1:18" ht="28.8">
+    <row r="112" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>111</v>
       </c>
@@ -9577,7 +9572,7 @@
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
       <c r="J112" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ208</v>
       </c>
       <c r="M112" s="28" t="s">
@@ -9595,7 +9590,7 @@
       <c r="Q112" s="25"/>
       <c r="R112" s="19"/>
     </row>
-    <row r="113" spans="1:18" ht="28.8">
+    <row r="113" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>112</v>
       </c>
@@ -9620,7 +9615,7 @@
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
       <c r="J113" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ209</v>
       </c>
       <c r="M113" s="28" t="s">
@@ -9638,7 +9633,7 @@
       <c r="Q113" s="25"/>
       <c r="R113" s="19"/>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>113</v>
       </c>
@@ -9663,7 +9658,7 @@
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
       <c r="J114" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ210</v>
       </c>
       <c r="M114" s="28" t="s">
@@ -9681,7 +9676,7 @@
       <c r="Q114" s="25"/>
       <c r="R114" s="19"/>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>114</v>
       </c>
@@ -9706,7 +9701,7 @@
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
       <c r="J115" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ211</v>
       </c>
       <c r="M115" s="28" t="s">
@@ -9724,7 +9719,7 @@
       <c r="Q115" s="25"/>
       <c r="R115" s="19"/>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>115</v>
       </c>
@@ -9749,7 +9744,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
       <c r="J116" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ212</v>
       </c>
       <c r="M116" s="28" t="s">
@@ -9767,7 +9762,7 @@
       <c r="Q116" s="25"/>
       <c r="R116" s="19"/>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>116</v>
       </c>
@@ -9792,7 +9787,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
       <c r="J117" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ213</v>
       </c>
       <c r="M117" s="28" t="s">
@@ -9810,7 +9805,7 @@
       <c r="Q117" s="25"/>
       <c r="R117" s="19"/>
     </row>
-    <row r="118" spans="1:18" ht="28.8">
+    <row r="118" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <v>117</v>
       </c>
@@ -9835,7 +9830,7 @@
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
       <c r="J118" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ214</v>
       </c>
       <c r="M118" s="28" t="s">
@@ -9853,7 +9848,7 @@
       <c r="Q118" s="25"/>
       <c r="R118" s="19"/>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>118</v>
       </c>
@@ -9878,7 +9873,7 @@
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
       <c r="J119" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ215</v>
       </c>
       <c r="M119" s="28" t="s">
@@ -9896,7 +9891,7 @@
       <c r="Q119" s="25"/>
       <c r="R119" s="19"/>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <v>119</v>
       </c>
@@ -9921,7 +9916,7 @@
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
       <c r="J120" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ216</v>
       </c>
       <c r="M120" s="28" t="s">
@@ -9939,7 +9934,7 @@
       <c r="Q120" s="25"/>
       <c r="R120" s="19"/>
     </row>
-    <row r="121" spans="1:18" ht="28.8">
+    <row r="121" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <v>120</v>
       </c>
@@ -9964,7 +9959,7 @@
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
       <c r="J121" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ217</v>
       </c>
       <c r="M121" s="28" t="s">
@@ -9982,7 +9977,7 @@
       <c r="Q121" s="25"/>
       <c r="R121" s="19"/>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>121</v>
       </c>
@@ -10007,7 +10002,7 @@
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
       <c r="J122" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ218</v>
       </c>
       <c r="M122" s="28" t="s">
@@ -10025,7 +10020,7 @@
       <c r="Q122" s="25"/>
       <c r="R122" s="19"/>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>122</v>
       </c>
@@ -10050,7 +10045,7 @@
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
       <c r="J123" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ219</v>
       </c>
       <c r="M123" s="28" t="s">
@@ -10068,7 +10063,7 @@
       <c r="Q123" s="25"/>
       <c r="R123" s="19"/>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>123</v>
       </c>
@@ -10093,7 +10088,7 @@
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
       <c r="J124" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ220</v>
       </c>
       <c r="M124" s="28" t="s">
@@ -10111,7 +10106,7 @@
       <c r="Q124" s="25"/>
       <c r="R124" s="19"/>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>124</v>
       </c>
@@ -10136,7 +10131,7 @@
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
       <c r="J125" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ221</v>
       </c>
       <c r="M125" s="28" t="s">
@@ -10154,7 +10149,7 @@
       <c r="Q125" s="25"/>
       <c r="R125" s="19"/>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>125</v>
       </c>
@@ -10179,7 +10174,7 @@
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
       <c r="J126" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ222</v>
       </c>
       <c r="M126" s="28" t="s">
@@ -10197,7 +10192,7 @@
       <c r="Q126" s="25"/>
       <c r="R126" s="19"/>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <v>126</v>
       </c>
@@ -10222,7 +10217,7 @@
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
       <c r="J127" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ223</v>
       </c>
       <c r="M127" s="28" t="s">
@@ -10240,7 +10235,7 @@
       <c r="Q127" s="25"/>
       <c r="R127" s="19"/>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <v>127</v>
       </c>
@@ -10265,7 +10260,7 @@
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
       <c r="J128" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ224</v>
       </c>
       <c r="M128" s="28" t="s">
@@ -10283,7 +10278,7 @@
       <c r="Q128" s="25"/>
       <c r="R128" s="19"/>
     </row>
-    <row r="129" spans="1:18" ht="28.8">
+    <row r="129" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <v>128</v>
       </c>
@@ -10308,7 +10303,7 @@
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
       <c r="J129" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ225</v>
       </c>
       <c r="M129" s="28" t="s">
@@ -10326,7 +10321,7 @@
       <c r="Q129" s="25"/>
       <c r="R129" s="19"/>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <v>129</v>
       </c>
@@ -10351,7 +10346,7 @@
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
       <c r="J130" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MJ226</v>
       </c>
       <c r="M130" s="28" t="s">
@@ -10369,7 +10364,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:P130">
-    <sortCondition sortBy="fontColor" ref="J2:J130" dxfId="1"/>
+    <sortCondition sortBy="fontColor" ref="J2:J130" dxfId="0"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
